--- a/proj_test/linksForPlants.xlsx
+++ b/proj_test/linksForPlants.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -49,11 +48,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -132,10 +137,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -173,69 +178,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -259,54 +266,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -316,7 +322,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -325,7 +331,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -334,7 +340,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -342,10 +348,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -374,7 +380,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -387,13 +393,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -413,7 +418,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
@@ -424,3093 +429,3097 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Daylilies</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/181473/</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/181473/</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Irises</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/181474/</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/181474/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Roses</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/181506/</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/181506/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Sempervivum</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/186377/</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/186377/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Lilies</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/77555/</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/77555/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Hostas</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/181510/</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/181510/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Dahlias</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/76165/</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/76165/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Peonies</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/530825/</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/530825/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Daffodils</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/77916/</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/77916/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Tomatoes</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/77653/</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/77653/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Abelias</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242735/</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242735/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Abutilons</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242733/</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242733/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Adeniums</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242253/</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242253/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Aeoniums</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/649201/</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/649201/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>Agapanthus</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/75143/</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/75143/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Agaves</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242254/</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242254/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Aglaonemas</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/71544/</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/71544/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Air Plants</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/232959/</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/232959/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Aloes</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242252/</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242252/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Amaryllis</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/76980/</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/76980/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>Amorphophallus</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/243338/</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/243338/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>Angel's Trumpets</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/236057/</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/236057/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>Anise Hyssops</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242700/</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242700/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>Anthuriums</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/538637/</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/538637/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>Apples</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/86564/</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/86564/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>Apricots</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/114689/</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/114689/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>Arborvitaes</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/710373/</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/710373/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>Arisaemas</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/528695/</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/528695/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>Artichokes</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/87062/</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/87062/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Arums</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/641388/</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/641388/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>Asparagus</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/86226/</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/86226/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>Asters</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/232412/</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/232412/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>Astilbes</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242590/</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242590/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>Astragaluses</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/536504/</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/536504/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>Baby's Breaths</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/126348/</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/126348/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>Bananas</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/533137/</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/533137/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>Baptisias</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/536505/</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/536505/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>Barberries</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/240127/</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/240127/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>Basils</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/588177/</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/588177/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>Beans</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/86830/</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/86830/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>Beautyberries</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/737439/</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/737439/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>Bee Balms</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242696/</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242696/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="18.75" customHeight="1">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>Beets</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/530731/</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/530731/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="18.75" customHeight="1">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>Begonias</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/75518/</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/75518/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="18.75" customHeight="1">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>Bellflowers</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/528041/</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/528041/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>Black Eyed Susans</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/78788/</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/78788/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="18.75" customHeight="1">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>Blanket Flowers</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/76606/</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/76606/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="18.75" customHeight="1">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>Bleeding Hearts</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/528113/</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/528113/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="18.75" customHeight="1">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>Blood Lilies</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/528285/</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/528285/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="18.75" customHeight="1">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>Bluebeards</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/528040/</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/528040/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="18.75" customHeight="1">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>Bluestem Grasses</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/528284/</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/528284/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="18.75" customHeight="1">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>Bougainvilleas</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/75569/</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/75569/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="18.75" customHeight="1">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>Brassicas</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/229759/</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/229759/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="18.75" customHeight="1">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>Butterfly Bushes</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/649002/</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/649002/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="18.75" customHeight="1">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>Butterworts</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/809714/</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/809714/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="18.75" customHeight="1">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>Caladiums</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/527355/</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/527355/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="18.75" customHeight="1">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>Calibrachoas</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/75655/</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/75655/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="18.75" customHeight="1">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>Callas</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/233380/</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/233380/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="18.75" customHeight="1">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>Camellias</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/75683/</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/75683/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="18.75" customHeight="1">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>Cannas</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/75726/</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/75726/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="18.75" customHeight="1">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>Cantaloupes</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/87175/</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/87175/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="18.75" customHeight="1">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>Cape Lilies</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/527558/</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/527558/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="18.75" customHeight="1">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>Cape Primroses</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/79113/</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/79113/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="18.75" customHeight="1">
+      <c r="A64" s="2" t="inlineStr">
         <is>
           <t>Carrots</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/386216/</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/386216/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="18.75" customHeight="1">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>Castor Beans</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/78747/</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/78747/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="18.75" customHeight="1">
+      <c r="A66" s="2" t="inlineStr">
         <is>
           <t>Catmints</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242695/</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242695/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="18.75" customHeight="1">
+      <c r="A67" s="2" t="inlineStr">
         <is>
           <t>Celeries</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/737487/</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/737487/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="18.75" customHeight="1">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>Chickweed</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/528417/</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/528417/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="18.75" customHeight="1">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>Chives</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/75204/</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/75204/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="18.75" customHeight="1">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>Chlorophytums</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/527545/</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/527545/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="18.75" customHeight="1">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>Chollas</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/232894/</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/232894/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="18.75" customHeight="1">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>Cilantros</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/86729/</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/86729/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="18.75" customHeight="1">
+      <c r="A73" s="2" t="inlineStr">
         <is>
           <t>Citrus Fruits</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242635/</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242635/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="18.75" customHeight="1">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>Clematis</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/181489/</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/181489/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="18.75" customHeight="1">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>Clivias</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242628/</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242628/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="18.75" customHeight="1">
+      <c r="A76" s="2" t="inlineStr">
         <is>
           <t>Colchicums</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/75960/</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/75960/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="18.75" customHeight="1">
+      <c r="A77" s="2" t="inlineStr">
         <is>
           <t>Coleus</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/79005/</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/79005/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="18.75" customHeight="1">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>Columbines</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/75302/</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/75302/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="18.75" customHeight="1">
+      <c r="A79" s="2" t="inlineStr">
         <is>
           <t>Coneflowers</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/185972/</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/185972/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="18.75" customHeight="1">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>Consolidas</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/646103/</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/646103/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="18.75" customHeight="1">
+      <c r="A81" s="2" t="inlineStr">
         <is>
           <t>Coral Bells</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/232967/</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/232967/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="18.75" customHeight="1">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>Corn</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/695646/</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/695646/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="18.75" customHeight="1">
+      <c r="A83" s="2" t="inlineStr">
         <is>
           <t>Cosmos</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/528112/</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/528112/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="18.75" customHeight="1">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>Crassulas</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242255/</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242255/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="18.75" customHeight="1">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>Crepe Myrtles</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/181507/</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/181507/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="18.75" customHeight="1">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>Crinums</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/76120/</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/76120/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="18.75" customHeight="1">
+      <c r="A87" s="2" t="inlineStr">
         <is>
           <t>Crocosmias</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242597/</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242597/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="18.75" customHeight="1">
+      <c r="A88" s="2" t="inlineStr">
         <is>
           <t>Crocus</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242588/</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242588/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" ht="18.75" customHeight="1">
+      <c r="A89" s="2" t="inlineStr">
         <is>
           <t>Crotons</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/240116/</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/240116/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" ht="18.75" customHeight="1">
+      <c r="A90" s="2" t="inlineStr">
         <is>
           <t>Cucumbers</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/546944/</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/546944/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="18.75" customHeight="1">
+      <c r="A91" s="2" t="inlineStr">
         <is>
           <t>Culinary Sages</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/4663/</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/4663/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="18.75" customHeight="1">
+      <c r="A92" s="2" t="inlineStr">
         <is>
           <t>Currants And Gooseberries</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/737497/</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/737497/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" ht="18.75" customHeight="1">
+      <c r="A93" s="2" t="inlineStr">
         <is>
           <t>Dead Nettles</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242648/</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242648/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" ht="18.75" customHeight="1">
+      <c r="A94" s="2" t="inlineStr">
         <is>
           <t>Delphiniums</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/76186/</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/76186/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" ht="18.75" customHeight="1">
+      <c r="A95" s="2" t="inlineStr">
         <is>
           <t>Dianthus</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/76204/</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/76204/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" ht="18.75" customHeight="1">
+      <c r="A96" s="2" t="inlineStr">
         <is>
           <t>Dieffenbachias</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/645466/</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/645466/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" ht="18.75" customHeight="1">
+      <c r="A97" s="2" t="inlineStr">
         <is>
           <t>Dills</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/75274/</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/75274/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="18.75" customHeight="1">
+      <c r="A98" s="2" t="inlineStr">
         <is>
           <t>Dogwoods</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/527547/</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/527547/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="18.75" customHeight="1">
+      <c r="A99" s="2" t="inlineStr">
         <is>
           <t>Dracontiums</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/645122/</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/645122/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="18.75" customHeight="1">
+      <c r="A100" s="2" t="inlineStr">
         <is>
           <t>Dudleyas</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242249/</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242249/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" ht="18.75" customHeight="1">
+      <c r="A101" s="2" t="inlineStr">
         <is>
           <t>Echeverias</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/117125/</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/117125/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" ht="18.75" customHeight="1">
+      <c r="A102" s="2" t="inlineStr">
         <is>
           <t>Eggplants</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/87688/</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/87688/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" ht="18.75" customHeight="1">
+      <c r="A103" s="2" t="inlineStr">
         <is>
           <t>Elephant Ears (Alocasia)</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/75214/</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/75214/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" ht="18.75" customHeight="1">
+      <c r="A104" s="2" t="inlineStr">
         <is>
           <t>Elephant Ears (Colocasia)</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242621/</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242621/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="18.75" customHeight="1">
+      <c r="A105" s="2" t="inlineStr">
         <is>
           <t>Elephant Ears (Xanthosoma)</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/537490/</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/537490/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" ht="18.75" customHeight="1">
+      <c r="A106" s="2" t="inlineStr">
         <is>
           <t>Epiphyllum</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/589130/</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/589130/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" ht="18.75" customHeight="1">
+      <c r="A107" s="2" t="inlineStr">
         <is>
           <t>Erodiums</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/240734/</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/240734/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" ht="18.75" customHeight="1">
+      <c r="A108" s="2" t="inlineStr">
         <is>
           <t>Erythroniums</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/536508/</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/536508/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" ht="18.75" customHeight="1">
+      <c r="A109" s="2" t="inlineStr">
         <is>
           <t>Eupatoriums</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/536507/</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/536507/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110" ht="18.75" customHeight="1">
+      <c r="A110" s="2" t="inlineStr">
         <is>
           <t>Euphorbias</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242586/</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242586/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111" ht="18.75" customHeight="1">
+      <c r="A111" s="2" t="inlineStr">
         <is>
           <t>False Bananas</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/533136/</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/533136/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" ht="18.75" customHeight="1">
+      <c r="A112" s="2" t="inlineStr">
         <is>
           <t>Figs</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/76528/</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/76528/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113" ht="18.75" customHeight="1">
+      <c r="A113" s="2" t="inlineStr">
         <is>
           <t>Foamflowers</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/229091/</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/229091/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114" ht="18.75" customHeight="1">
+      <c r="A114" s="2" t="inlineStr">
         <is>
           <t>Foamy Bells</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/232966/</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/232966/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" ht="18.75" customHeight="1">
+      <c r="A115" s="2" t="inlineStr">
         <is>
           <t>Foxgloves</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/528115/</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/528115/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" ht="18.75" customHeight="1">
+      <c r="A116" s="2" t="inlineStr">
         <is>
           <t>Freesias</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/76597/</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/76597/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" ht="18.75" customHeight="1">
+      <c r="A117" s="2" t="inlineStr">
         <is>
           <t>Fritillarias</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/656551/</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/656551/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" ht="18.75" customHeight="1">
+      <c r="A118" s="2" t="inlineStr">
         <is>
           <t>Fuchsias</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/76601/</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/76601/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" ht="18.75" customHeight="1">
+      <c r="A119" s="2" t="inlineStr">
         <is>
           <t>Garden Nasturtiums</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/185903/</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/185903/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" ht="18.75" customHeight="1">
+      <c r="A120" s="2" t="inlineStr">
         <is>
           <t>Gardenias</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/612276/</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/612276/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" ht="18.75" customHeight="1">
+      <c r="A121" s="2" t="inlineStr">
         <is>
           <t>Garlic</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/75203/</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/75203/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122" ht="18.75" customHeight="1">
+      <c r="A122" s="2" t="inlineStr">
         <is>
           <t>Gayfeathers</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/536509/</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/536509/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" ht="18.75" customHeight="1">
+      <c r="A123" s="2" t="inlineStr">
         <is>
           <t>Geraniums</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/233659/</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/233659/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" ht="18.75" customHeight="1">
+      <c r="A124" s="2" t="inlineStr">
         <is>
           <t>Ginger Lilies</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/659229/</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/659229/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" ht="18.75" customHeight="1">
+      <c r="A125" s="2" t="inlineStr">
         <is>
           <t>Gingers</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/659230/</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/659230/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" ht="18.75" customHeight="1">
+      <c r="A126" s="2" t="inlineStr">
         <is>
           <t>Gladiolus</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/76715/</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/76715/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" ht="18.75" customHeight="1">
+      <c r="A127" s="2" t="inlineStr">
         <is>
           <t>Goldenrods</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/527712/</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/527712/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="18.75" customHeight="1">
+      <c r="A128" s="2" t="inlineStr">
         <is>
           <t>Gourds, Squashes And Pumpkins</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242703/</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242703/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" ht="18.75" customHeight="1">
+      <c r="A129" s="2" t="inlineStr">
         <is>
           <t>Grape Hyacinths</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/236410/</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/236410/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" ht="18.75" customHeight="1">
+      <c r="A130" s="2" t="inlineStr">
         <is>
           <t>Grapes</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/706088/</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/706088/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131" ht="18.75" customHeight="1">
+      <c r="A131" s="2" t="inlineStr">
         <is>
           <t>Heavenly Bamboos</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/181462/</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/181462/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" ht="18.75" customHeight="1">
+      <c r="A132" s="2" t="inlineStr">
         <is>
           <t>Hellebores</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/240735/</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/240735/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" ht="18.75" customHeight="1">
+      <c r="A133" s="2" t="inlineStr">
         <is>
           <t>Hibiscus</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242680/</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242680/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134" ht="18.75" customHeight="1">
+      <c r="A134" s="2" t="inlineStr">
         <is>
           <t>Homalomenas</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/645477/</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/645477/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135" ht="18.75" customHeight="1">
+      <c r="A135" s="2" t="inlineStr">
         <is>
           <t>Honeysuckles</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/527546/</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/527546/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" ht="18.75" customHeight="1">
+      <c r="A136" s="2" t="inlineStr">
         <is>
           <t>Hoyas</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/228342/</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/228342/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137" ht="18.75" customHeight="1">
+      <c r="A137" s="2" t="inlineStr">
         <is>
           <t>Hyacinths</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/527149/</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/527149/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" ht="18.75" customHeight="1">
+      <c r="A138" s="2" t="inlineStr">
         <is>
           <t>Hydrangeas</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/232782/</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/232782/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139" ht="18.75" customHeight="1">
+      <c r="A139" s="2" t="inlineStr">
         <is>
           <t>Ilex</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/546842/</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/546842/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140" ht="18.75" customHeight="1">
+      <c r="A140" s="2" t="inlineStr">
         <is>
           <t>Joe Pye Weed</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/528424/</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/528424/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141" ht="18.75" customHeight="1">
+      <c r="A141" s="2" t="inlineStr">
         <is>
           <t>Jujubes</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/109204/</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/109204/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142" ht="18.75" customHeight="1">
+      <c r="A142" s="2" t="inlineStr">
         <is>
           <t>Kalanchoes</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242256/</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242256/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143" ht="18.75" customHeight="1">
+      <c r="A143" s="2" t="inlineStr">
         <is>
           <t>Lamb's Ears</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/703451/</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/703451/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" ht="18.75" customHeight="1">
+      <c r="A144" s="2" t="inlineStr">
         <is>
           <t>Lantanas</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/664693/</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/664693/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145" ht="18.75" customHeight="1">
+      <c r="A145" s="2" t="inlineStr">
         <is>
           <t>Lavenders</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/238525/</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/238525/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146" ht="18.75" customHeight="1">
+      <c r="A146" s="2" t="inlineStr">
         <is>
           <t>Leeks</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/75202/</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/75202/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147" ht="18.75" customHeight="1">
+      <c r="A147" s="2" t="inlineStr">
         <is>
           <t>Lettuces</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/77401/</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/77401/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148" ht="18.75" customHeight="1">
+      <c r="A148" s="2" t="inlineStr">
         <is>
           <t>Ligularias</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/527803/</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/527803/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" ht="18.75" customHeight="1">
+      <c r="A149" s="2" t="inlineStr">
         <is>
           <t>Lilacs</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/654247/</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/654247/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="18.75" customHeight="1">
+      <c r="A150" s="2" t="inlineStr">
         <is>
           <t>Lilies Of The Valley</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242615/</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242615/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="18.75" customHeight="1">
+      <c r="A151" s="2" t="inlineStr">
         <is>
           <t>Lions Tail</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/529791/</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/529791/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" ht="18.75" customHeight="1">
+      <c r="A152" s="2" t="inlineStr">
         <is>
           <t>Liriopes</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/243264/</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/243264/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153" ht="18.75" customHeight="1">
+      <c r="A153" s="2" t="inlineStr">
         <is>
           <t>Living Stones</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242239/</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242239/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154" ht="18.75" customHeight="1">
+      <c r="A154" s="2" t="inlineStr">
         <is>
           <t>Lotuses</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/535523/</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/535523/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155" ht="18.75" customHeight="1">
+      <c r="A155" s="2" t="inlineStr">
         <is>
           <t>Magnolias</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/527354/</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/527354/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156" ht="18.75" customHeight="1">
+      <c r="A156" s="2" t="inlineStr">
         <is>
           <t>Maianthemums</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/243252/</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/243252/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157" ht="18.75" customHeight="1">
+      <c r="A157" s="2" t="inlineStr">
         <is>
           <t>Mammillarias</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/703749/</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/703749/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158" ht="18.75" customHeight="1">
+      <c r="A158" s="2" t="inlineStr">
         <is>
           <t>Mangoes</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/696302/</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/696302/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159" ht="18.75" customHeight="1">
+      <c r="A159" s="2" t="inlineStr">
         <is>
           <t>Marjorams</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/305608/</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/305608/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160" ht="18.75" customHeight="1">
+      <c r="A160" s="2" t="inlineStr">
         <is>
           <t>Melaleucas</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/741711/</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/741711/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161" ht="18.75" customHeight="1">
+      <c r="A161" s="2" t="inlineStr">
         <is>
           <t>Milkweeds</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242659/</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242659/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162" ht="18.75" customHeight="1">
+      <c r="A162" s="2" t="inlineStr">
         <is>
           <t>Mints</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242686/</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242686/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163" ht="18.75" customHeight="1">
+      <c r="A163" s="2" t="inlineStr">
         <is>
           <t>Mirabilis</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242654/</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242654/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164" ht="18.75" customHeight="1">
+      <c r="A164" s="2" t="inlineStr">
         <is>
           <t>Mock Oranges</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/716771/</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/716771/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165" ht="18.75" customHeight="1">
+      <c r="A165" s="2" t="inlineStr">
         <is>
           <t>Morning Glories</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/232852/</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/232852/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166" ht="18.75" customHeight="1">
+      <c r="A166" s="2" t="inlineStr">
         <is>
           <t>Nicotianas</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242674/</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242674/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167" ht="18.75" customHeight="1">
+      <c r="A167" s="2" t="inlineStr">
         <is>
           <t>Ninebarks</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/737437/</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/737437/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168" ht="18.75" customHeight="1">
+      <c r="A168" s="2" t="inlineStr">
         <is>
           <t>Nymphaeas</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/535524/</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/535524/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169" ht="18.75" customHeight="1">
+      <c r="A169" s="2" t="inlineStr">
         <is>
           <t>Oenotheras</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242656/</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242656/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170" ht="18.75" customHeight="1">
+      <c r="A170" s="2" t="inlineStr">
         <is>
           <t>Okra</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/87161/</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/87161/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171" ht="18.75" customHeight="1">
+      <c r="A171" s="2" t="inlineStr">
         <is>
           <t>Oleanders</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/71485/</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/71485/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172" ht="18.75" customHeight="1">
+      <c r="A172" s="2" t="inlineStr">
         <is>
           <t>Onions</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/75195/</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/75195/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173" ht="18.75" customHeight="1">
+      <c r="A173" s="2" t="inlineStr">
         <is>
           <t>Oreganos</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/78057/</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/78057/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174" ht="18.75" customHeight="1">
+      <c r="A174" s="2" t="inlineStr">
         <is>
           <t>Orostachys</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/535521/</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/535521/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175" ht="18.75" customHeight="1">
+      <c r="A175" s="2" t="inlineStr">
         <is>
           <t>Pachypodiums</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242237/</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242237/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176" ht="18.75" customHeight="1">
+      <c r="A176" s="2" t="inlineStr">
         <is>
           <t>Parsleys</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/663223/</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/663223/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177" ht="18.75" customHeight="1">
+      <c r="A177" s="2" t="inlineStr">
         <is>
           <t>Parsnips</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/92612/</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/92612/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178" ht="18.75" customHeight="1">
+      <c r="A178" s="2" t="inlineStr">
         <is>
           <t>Pawpaws</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/533135/</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/533135/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179" ht="18.75" customHeight="1">
+      <c r="A179" s="2" t="inlineStr">
         <is>
           <t>Peace Lilies</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/79045/</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/79045/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180" ht="18.75" customHeight="1">
+      <c r="A180" s="2" t="inlineStr">
         <is>
           <t>Peaches</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/225773/</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/225773/</t>
+        </is>
+      </c>
+    </row>
+    <row r="181" ht="18.75" customHeight="1">
+      <c r="A181" s="2" t="inlineStr">
         <is>
           <t>Pears</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/679739/</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/679739/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182" ht="18.75" customHeight="1">
+      <c r="A182" s="2" t="inlineStr">
         <is>
           <t>Peas</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/78419/</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/78419/</t>
+        </is>
+      </c>
+    </row>
+    <row r="183" ht="18.75" customHeight="1">
+      <c r="A183" s="2" t="inlineStr">
         <is>
           <t>Pecans</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/75783/</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/75783/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" ht="18.75" customHeight="1">
+      <c r="A184" s="2" t="inlineStr">
         <is>
           <t>Pelargoniums</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/78182/</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/78182/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185" ht="18.75" customHeight="1">
+      <c r="A185" s="2" t="inlineStr">
         <is>
           <t>Penstemons</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/527241/</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/527241/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186" ht="18.75" customHeight="1">
+      <c r="A186" s="2" t="inlineStr">
         <is>
           <t>Peppers</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/544392/</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/544392/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187" ht="18.75" customHeight="1">
+      <c r="A187" s="2" t="inlineStr">
         <is>
           <t>Persimmons</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/533138/</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/533138/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188" ht="18.75" customHeight="1">
+      <c r="A188" s="2" t="inlineStr">
         <is>
           <t>Peruvian Lilies</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/528114/</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/528114/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" ht="18.75" customHeight="1">
+      <c r="A189" s="2" t="inlineStr">
         <is>
           <t>Petunias</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/78235/</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/78235/</t>
+        </is>
+      </c>
+    </row>
+    <row r="190" ht="18.75" customHeight="1">
+      <c r="A190" s="2" t="inlineStr">
         <is>
           <t>Philodendrons</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/610127/</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/610127/</t>
+        </is>
+      </c>
+    </row>
+    <row r="191" ht="18.75" customHeight="1">
+      <c r="A191" s="2" t="inlineStr">
         <is>
           <t>Phloxes</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242737/</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242737/</t>
+        </is>
+      </c>
+    </row>
+    <row r="192" ht="18.75" customHeight="1">
+      <c r="A192" s="2" t="inlineStr">
         <is>
           <t>Pinellias</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/538639/</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/538639/</t>
+        </is>
+      </c>
+    </row>
+    <row r="193" ht="18.75" customHeight="1">
+      <c r="A193" s="2" t="inlineStr">
         <is>
           <t>Pitcher Plants</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/586939/</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/586939/</t>
+        </is>
+      </c>
+    </row>
+    <row r="194" ht="18.75" customHeight="1">
+      <c r="A194" s="2" t="inlineStr">
         <is>
           <t>Platycodons</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/631151/</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/631151/</t>
+        </is>
+      </c>
+    </row>
+    <row r="195" ht="18.75" customHeight="1">
+      <c r="A195" s="2" t="inlineStr">
         <is>
           <t>Plumerias</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/236427/</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/236427/</t>
+        </is>
+      </c>
+    </row>
+    <row r="196" ht="18.75" customHeight="1">
+      <c r="A196" s="2" t="inlineStr">
         <is>
           <t>Plums</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/221575/</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/221575/</t>
+        </is>
+      </c>
+    </row>
+    <row r="197" ht="18.75" customHeight="1">
+      <c r="A197" s="2" t="inlineStr">
         <is>
           <t>Pomegranates</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/78603/</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/78603/</t>
+        </is>
+      </c>
+    </row>
+    <row r="198" ht="18.75" customHeight="1">
+      <c r="A198" s="2" t="inlineStr">
         <is>
           <t>Poppies</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242682/</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242682/</t>
+        </is>
+      </c>
+    </row>
+    <row r="199" ht="18.75" customHeight="1">
+      <c r="A199" s="2" t="inlineStr">
         <is>
           <t>Potatoes</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/79004/</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/79004/</t>
+        </is>
+      </c>
+    </row>
+    <row r="200" ht="18.75" customHeight="1">
+      <c r="A200" s="2" t="inlineStr">
         <is>
           <t>Prickly Pears</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/232892/</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/232892/</t>
+        </is>
+      </c>
+    </row>
+    <row r="201" ht="18.75" customHeight="1">
+      <c r="A201" s="2" t="inlineStr">
         <is>
           <t>Primroses</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/78498/</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/78498/</t>
+        </is>
+      </c>
+    </row>
+    <row r="202" ht="18.75" customHeight="1">
+      <c r="A202" s="2" t="inlineStr">
         <is>
           <t>Radishes</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/78652/</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/78652/</t>
+        </is>
+      </c>
+    </row>
+    <row r="203" ht="18.75" customHeight="1">
+      <c r="A203" s="2" t="inlineStr">
         <is>
           <t>Rain Lilies</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/243455/</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/243455/</t>
+        </is>
+      </c>
+    </row>
+    <row r="204" ht="18.75" customHeight="1">
+      <c r="A204" s="2" t="inlineStr">
         <is>
           <t>Rhododendrons</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/78708/</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/78708/</t>
+        </is>
+      </c>
+    </row>
+    <row r="205" ht="18.75" customHeight="1">
+      <c r="A205" s="2" t="inlineStr">
         <is>
           <t>Rhubarbs</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242705/</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242705/</t>
+        </is>
+      </c>
+    </row>
+    <row r="206" ht="18.75" customHeight="1">
+      <c r="A206" s="2" t="inlineStr">
         <is>
           <t>Rockroses</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242636/</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242636/</t>
+        </is>
+      </c>
+    </row>
+    <row r="207" ht="18.75" customHeight="1">
+      <c r="A207" s="2" t="inlineStr">
         <is>
           <t>Roses Of Sharon</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/76969/</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/76969/</t>
+        </is>
+      </c>
+    </row>
+    <row r="208" ht="18.75" customHeight="1">
+      <c r="A208" s="2" t="inlineStr">
         <is>
           <t>Rosularias</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/535522/</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/535522/</t>
+        </is>
+      </c>
+    </row>
+    <row r="209" ht="18.75" customHeight="1">
+      <c r="A209" s="2" t="inlineStr">
         <is>
           <t>Rubus</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/661747/</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/661747/</t>
+        </is>
+      </c>
+    </row>
+    <row r="210" ht="18.75" customHeight="1">
+      <c r="A210" s="2" t="inlineStr">
         <is>
           <t>Salvias</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/228296/</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/228296/</t>
+        </is>
+      </c>
+    </row>
+    <row r="211" ht="18.75" customHeight="1">
+      <c r="A211" s="2" t="inlineStr">
         <is>
           <t>Sauromatums</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/547474/</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/547474/</t>
+        </is>
+      </c>
+    </row>
+    <row r="212" ht="18.75" customHeight="1">
+      <c r="A212" s="2" t="inlineStr">
         <is>
           <t>Schlumbergeras</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/648508/</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/648508/</t>
+        </is>
+      </c>
+    </row>
+    <row r="213" ht="18.75" customHeight="1">
+      <c r="A213" s="2" t="inlineStr">
         <is>
           <t>Sedges</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/528045/</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/528045/</t>
+        </is>
+      </c>
+    </row>
+    <row r="214" ht="18.75" customHeight="1">
+      <c r="A214" s="2" t="inlineStr">
         <is>
           <t>Sedums</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/243012/</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/243012/</t>
+        </is>
+      </c>
+    </row>
+    <row r="215" ht="18.75" customHeight="1">
+      <c r="A215" s="2" t="inlineStr">
         <is>
           <t>Shasta Daisies</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/86727/</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/86727/</t>
+        </is>
+      </c>
+    </row>
+    <row r="216" ht="18.75" customHeight="1">
+      <c r="A216" s="2" t="inlineStr">
         <is>
           <t>Shell Flowers (Pavonia)</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/534892/</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/534892/</t>
+        </is>
+      </c>
+    </row>
+    <row r="217" ht="18.75" customHeight="1">
+      <c r="A217" s="2" t="inlineStr">
         <is>
           <t>Silphiums</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/536510/</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/536510/</t>
+        </is>
+      </c>
+    </row>
+    <row r="218" ht="18.75" customHeight="1">
+      <c r="A218" s="2" t="inlineStr">
         <is>
           <t>Sisyrinchiums</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/536512/</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/536512/</t>
+        </is>
+      </c>
+    </row>
+    <row r="219" ht="18.75" customHeight="1">
+      <c r="A219" s="2" t="inlineStr">
         <is>
           <t>Smoketrees</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/76089/</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/76089/</t>
+        </is>
+      </c>
+    </row>
+    <row r="220" ht="18.75" customHeight="1">
+      <c r="A220" s="2" t="inlineStr">
         <is>
           <t>Snake Plants</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242416/</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242416/</t>
+        </is>
+      </c>
+    </row>
+    <row r="221" ht="18.75" customHeight="1">
+      <c r="A221" s="2" t="inlineStr">
         <is>
           <t>Snowdrops</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/612281/</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/612281/</t>
+        </is>
+      </c>
+    </row>
+    <row r="222" ht="18.75" customHeight="1">
+      <c r="A222" s="2" t="inlineStr">
         <is>
           <t>Southern Peas</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/546945/</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/546945/</t>
+        </is>
+      </c>
+    </row>
+    <row r="223" ht="18.75" customHeight="1">
+      <c r="A223" s="2" t="inlineStr">
         <is>
           <t>Spider Lilies</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/528166/</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/528166/</t>
+        </is>
+      </c>
+    </row>
+    <row r="224" ht="18.75" customHeight="1">
+      <c r="A224" s="2" t="inlineStr">
         <is>
           <t>Spinaches</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/125551/</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/125551/</t>
+        </is>
+      </c>
+    </row>
+    <row r="225" ht="18.75" customHeight="1">
+      <c r="A225" s="2" t="inlineStr">
         <is>
           <t>Spiraeas</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/677527/</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/677527/</t>
+        </is>
+      </c>
+    </row>
+    <row r="226" ht="18.75" customHeight="1">
+      <c r="A226" s="2" t="inlineStr">
         <is>
           <t>Spruces</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/502355/</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/502355/</t>
+        </is>
+      </c>
+    </row>
+    <row r="227" ht="18.75" customHeight="1">
+      <c r="A227" s="2" t="inlineStr">
         <is>
           <t>Strawberries</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/672981/</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/672981/</t>
+        </is>
+      </c>
+    </row>
+    <row r="228" ht="18.75" customHeight="1">
+      <c r="A228" s="2" t="inlineStr">
         <is>
           <t>Sunflowers</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/76786/</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/76786/</t>
+        </is>
+      </c>
+    </row>
+    <row r="229" ht="18.75" customHeight="1">
+      <c r="A229" s="2" t="inlineStr">
         <is>
           <t>Sunroots</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/82417/</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/82417/</t>
+        </is>
+      </c>
+    </row>
+    <row r="230" ht="18.75" customHeight="1">
+      <c r="A230" s="2" t="inlineStr">
         <is>
           <t>Surprise Lilies (Lycoris)</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/243254/</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/243254/</t>
+        </is>
+      </c>
+    </row>
+    <row r="231" ht="18.75" customHeight="1">
+      <c r="A231" s="2" t="inlineStr">
         <is>
           <t>Sweet Cherries</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/78512/</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/78512/</t>
+        </is>
+      </c>
+    </row>
+    <row r="232" ht="18.75" customHeight="1">
+      <c r="A232" s="2" t="inlineStr">
         <is>
           <t>Sweet Potatoes</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/77225/</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/77225/</t>
+        </is>
+      </c>
+    </row>
+    <row r="233" ht="18.75" customHeight="1">
+      <c r="A233" s="2" t="inlineStr">
         <is>
           <t>Swiss Chards</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/221578/</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/221578/</t>
+        </is>
+      </c>
+    </row>
+    <row r="234" ht="18.75" customHeight="1">
+      <c r="A234" s="2" t="inlineStr">
         <is>
           <t>Syngoniums</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/645960/</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/645960/</t>
+        </is>
+      </c>
+    </row>
+    <row r="235" ht="18.75" customHeight="1">
+      <c r="A235" s="2" t="inlineStr">
         <is>
           <t>Tarragons</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/80109/</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/80109/</t>
+        </is>
+      </c>
+    </row>
+    <row r="236" ht="18.75" customHeight="1">
+      <c r="A236" s="2" t="inlineStr">
         <is>
           <t>Thymes</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/79239/</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/79239/</t>
+        </is>
+      </c>
+    </row>
+    <row r="237" ht="18.75" customHeight="1">
+      <c r="A237" s="2" t="inlineStr">
         <is>
           <t>Tickseeds</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242732/</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242732/</t>
+        </is>
+      </c>
+    </row>
+    <row r="238" ht="18.75" customHeight="1">
+      <c r="A238" s="2" t="inlineStr">
         <is>
           <t>Toad Lilies</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/502354/</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/502354/</t>
+        </is>
+      </c>
+    </row>
+    <row r="239" ht="18.75" customHeight="1">
+      <c r="A239" s="2" t="inlineStr">
         <is>
           <t>Torch Lilies</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/528038/</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/528038/</t>
+        </is>
+      </c>
+    </row>
+    <row r="240" ht="18.75" customHeight="1">
+      <c r="A240" s="2" t="inlineStr">
         <is>
           <t>Tradescantias</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/536513/</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/536513/</t>
+        </is>
+      </c>
+    </row>
+    <row r="241" ht="18.75" customHeight="1">
+      <c r="A241" s="2" t="inlineStr">
         <is>
           <t>Trilliums</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/243588/</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
+      <c r="B241" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/243588/</t>
+        </is>
+      </c>
+    </row>
+    <row r="242" ht="18.75" customHeight="1">
+      <c r="A242" s="2" t="inlineStr">
         <is>
           <t>Tropical Hibiscuses</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/76965/</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
+      <c r="B242" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/76965/</t>
+        </is>
+      </c>
+    </row>
+    <row r="243" ht="18.75" customHeight="1">
+      <c r="A243" s="2" t="inlineStr">
         <is>
           <t>Tulips</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/79349/</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
+      <c r="B243" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/79349/</t>
+        </is>
+      </c>
+    </row>
+    <row r="244" ht="18.75" customHeight="1">
+      <c r="A244" s="2" t="inlineStr">
         <is>
           <t>Turnips</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/113551/</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
+      <c r="B244" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/113551/</t>
+        </is>
+      </c>
+    </row>
+    <row r="245" ht="18.75" customHeight="1">
+      <c r="A245" s="2" t="inlineStr">
         <is>
           <t>Typhoniums</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/547473/</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
+      <c r="B245" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/547473/</t>
+        </is>
+      </c>
+    </row>
+    <row r="246" ht="18.75" customHeight="1">
+      <c r="A246" s="2" t="inlineStr">
         <is>
           <t>Uvularias</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/536514/</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
+      <c r="B246" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/536514/</t>
+        </is>
+      </c>
+    </row>
+    <row r="247" ht="18.75" customHeight="1">
+      <c r="A247" s="2" t="inlineStr">
         <is>
           <t>Veronicas</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/242650/</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
+      <c r="B247" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/242650/</t>
+        </is>
+      </c>
+    </row>
+    <row r="248" ht="18.75" customHeight="1">
+      <c r="A248" s="2" t="inlineStr">
         <is>
           <t>Viburnums</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/546841/</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/546841/</t>
+        </is>
+      </c>
+    </row>
+    <row r="249" ht="18.75" customHeight="1">
+      <c r="A249" s="2" t="inlineStr">
         <is>
           <t>Violas</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/240194/</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/240194/</t>
+        </is>
+      </c>
+    </row>
+    <row r="250" ht="18.75" customHeight="1">
+      <c r="A250" s="2" t="inlineStr">
         <is>
           <t>Watermelons</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/87174/</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/87174/</t>
+        </is>
+      </c>
+    </row>
+    <row r="251" ht="18.75" customHeight="1">
+      <c r="A251" s="2" t="inlineStr">
         <is>
           <t>Wild Gingers</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/544711/</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
+      <c r="B251" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/544711/</t>
+        </is>
+      </c>
+    </row>
+    <row r="252" ht="18.75" customHeight="1">
+      <c r="A252" s="2" t="inlineStr">
         <is>
           <t>Wisterias</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/548172/</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
+      <c r="B252" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/548172/</t>
+        </is>
+      </c>
+    </row>
+    <row r="253" ht="18.75" customHeight="1">
+      <c r="A253" s="2" t="inlineStr">
         <is>
           <t>Witch Hazels</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/746144/</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
+      <c r="B253" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/746144/</t>
+        </is>
+      </c>
+    </row>
+    <row r="254" ht="18.75" customHeight="1">
+      <c r="A254" s="2" t="inlineStr">
         <is>
           <t>Wood Sorrels</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/527795/</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/527795/</t>
+        </is>
+      </c>
+    </row>
+    <row r="255" ht="18.75" customHeight="1">
+      <c r="A255" s="2" t="inlineStr">
         <is>
           <t>Yarrows</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>http://garden.org/plants/browse/plants/children/75098/</t>
+      <c r="B255" s="2" t="inlineStr">
+        <is>
+          <t>https://garden.org/plants/browse/plants/children/75098/</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
@@ -3521,14 +3530,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B255"/>
@@ -3538,3068 +3547,3072 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Daylilies</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/daylilies/</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Irises</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/irises/</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Roses</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/roses/</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Sempervivum</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/sempervivum/</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Lilies</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/lilies/</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Hostas</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/hostas/</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Dahlias</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/dahlias/</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Peonies</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/peonies/</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Daffodils</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/daffodils/</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Tomatoes</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/tomatoes/</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Abelias</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/abelias/</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Abutilons</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/Abutilon/</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Adeniums</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/adenium/</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Aeoniums</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/aeoniums/</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>Agapanthus</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/agapanthus/</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Agaves</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/agaves/</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Aglaonemas</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/aglaonema/</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Air Plants</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/air-plants/</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Aloes</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/aloes/</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Amaryllis</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/amaryllis/</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>Amorphophallus</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/amorphophallus/</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>Angel's Trumpets</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/brugmansias/</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>Anise Hyssops</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/anisehyssops/</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>Anthuriums</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/anthuriums/</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>Apples</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/apples/</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>Apricots</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/apricots/</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>Arborvitaes</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/arborvitaes/</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>Arisaemas</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/arisaemas/</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>Artichokes</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/artichokes/</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Arums</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/arums/</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>Asparagus</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/asparagus/</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>Asters</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/asters/</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>Astilbes</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/astilbe/</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>Astragaluses</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/astragalus/</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>Baby's Breaths</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/babysbreath/</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>Bananas</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/bananas/</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>Baptisias</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/baptisia/</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>Barberries</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/barberries/</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>Basils</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/basil/</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>Beans</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/beans/</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>Beautyberries</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/beautyberries/</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>Bee Balms</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/beebalms/</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="43" ht="18.75" customHeight="1">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>Beets</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/beets/</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="44" ht="18.75" customHeight="1">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>Begonias</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/begonias/</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="45" ht="18.75" customHeight="1">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>Bellflowers</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/bellflowers/</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>Black Eyed Susans</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/black-eyed-susans/</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="47" ht="18.75" customHeight="1">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>Blanket Flowers</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/blanketflowers/</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="48" ht="18.75" customHeight="1">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>Bleeding Hearts</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/bleeding-hearts/</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="49" ht="18.75" customHeight="1">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>Blood Lilies</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/blood-lilies/</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="50" ht="18.75" customHeight="1">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>Bluebeards</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/bluebeards/</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="51" ht="18.75" customHeight="1">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>Bluestem Grasses</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/bluestem-grasses/</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="52" ht="18.75" customHeight="1">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>Bougainvilleas</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/bougainvilleas/</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="53" ht="18.75" customHeight="1">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>Brassicas</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/brassicas/</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="54" ht="18.75" customHeight="1">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>Butterfly Bushes</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/butterflybushes/</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="55" ht="18.75" customHeight="1">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>Butterworts</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/butterworts/</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="56" ht="18.75" customHeight="1">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>Caladiums</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/caladiums/</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="57" ht="18.75" customHeight="1">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>Calibrachoas</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/calibrachoas/</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="58" ht="18.75" customHeight="1">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>Callas</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/callas/</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="59" ht="18.75" customHeight="1">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>Camellias</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/camellias/</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="60" ht="18.75" customHeight="1">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>Cannas</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/cannas/</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="61" ht="18.75" customHeight="1">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>Cantaloupes</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/cantaloupes/</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="62" ht="18.75" customHeight="1">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>Cape Lilies</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/capeflowers/</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="63" ht="18.75" customHeight="1">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>Cape Primroses</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/cape-primroses/</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="64" ht="18.75" customHeight="1">
+      <c r="A64" s="2" t="inlineStr">
         <is>
           <t>Carrots</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/carrots/</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="65" ht="18.75" customHeight="1">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>Castor Beans</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/castor-beans/</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="66" ht="18.75" customHeight="1">
+      <c r="A66" s="2" t="inlineStr">
         <is>
           <t>Catmints</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/catmints/</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="67" ht="18.75" customHeight="1">
+      <c r="A67" s="2" t="inlineStr">
         <is>
           <t>Celeries</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/celery/</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="68" ht="18.75" customHeight="1">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>Chickweed</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/chickweed/</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="69" ht="18.75" customHeight="1">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>Chives</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/chives/</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="70" ht="18.75" customHeight="1">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>Chlorophytums</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/chlorophytums/</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="71" ht="18.75" customHeight="1">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>Chollas</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/chollas/</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="72" ht="18.75" customHeight="1">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>Cilantros</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/cilantro/</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="73" ht="18.75" customHeight="1">
+      <c r="A73" s="2" t="inlineStr">
         <is>
           <t>Citrus Fruits</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/citrus/</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="74" ht="18.75" customHeight="1">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>Clematis</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/clematis/</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="75" ht="18.75" customHeight="1">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>Clivias</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/clivias/</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="76" ht="18.75" customHeight="1">
+      <c r="A76" s="2" t="inlineStr">
         <is>
           <t>Colchicums</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/colchicums/</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="77" ht="18.75" customHeight="1">
+      <c r="A77" s="2" t="inlineStr">
         <is>
           <t>Coleus</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/coleus/</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="78" ht="18.75" customHeight="1">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>Columbines</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/columbines/</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="79" ht="18.75" customHeight="1">
+      <c r="A79" s="2" t="inlineStr">
         <is>
           <t>Coneflowers</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/coneflowers/</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="80" ht="18.75" customHeight="1">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>Consolidas</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/consolidas/</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="81" ht="18.75" customHeight="1">
+      <c r="A81" s="2" t="inlineStr">
         <is>
           <t>Coral Bells</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/coralbells/</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="82" ht="18.75" customHeight="1">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>Corn</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/corn/</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="83" ht="18.75" customHeight="1">
+      <c r="A83" s="2" t="inlineStr">
         <is>
           <t>Cosmos</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/cosmos/</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+    <row r="84" ht="18.75" customHeight="1">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>Crassulas</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/crassulas/</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="85" ht="18.75" customHeight="1">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>Crepe Myrtles</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/crepe-myrtles/</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="86" ht="18.75" customHeight="1">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>Crinums</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/crinums/</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="87" ht="18.75" customHeight="1">
+      <c r="A87" s="2" t="inlineStr">
         <is>
           <t>Crocosmias</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/crocosmia/</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+    <row r="88" ht="18.75" customHeight="1">
+      <c r="A88" s="2" t="inlineStr">
         <is>
           <t>Crocus</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/crocus/</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="89" ht="18.75" customHeight="1">
+      <c r="A89" s="2" t="inlineStr">
         <is>
           <t>Crotons</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/crotons/</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="90" ht="18.75" customHeight="1">
+      <c r="A90" s="2" t="inlineStr">
         <is>
           <t>Cucumbers</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/cucumbers/</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+    <row r="91" ht="18.75" customHeight="1">
+      <c r="A91" s="2" t="inlineStr">
         <is>
           <t>Culinary Sages</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/sage/</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+    <row r="92" ht="18.75" customHeight="1">
+      <c r="A92" s="2" t="inlineStr">
         <is>
           <t>Currants And Gooseberries</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/ribes/</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+    <row r="93" ht="18.75" customHeight="1">
+      <c r="A93" s="2" t="inlineStr">
         <is>
           <t>Dead Nettles</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/deadnettles/</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+    <row r="94" ht="18.75" customHeight="1">
+      <c r="A94" s="2" t="inlineStr">
         <is>
           <t>Delphiniums</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/delphiniums/</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+    <row r="95" ht="18.75" customHeight="1">
+      <c r="A95" s="2" t="inlineStr">
         <is>
           <t>Dianthus</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/dianthus/</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="96" ht="18.75" customHeight="1">
+      <c r="A96" s="2" t="inlineStr">
         <is>
           <t>Dieffenbachias</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/dieffenbachias/</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="97" ht="18.75" customHeight="1">
+      <c r="A97" s="2" t="inlineStr">
         <is>
           <t>Dills</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/dill/</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="98" ht="18.75" customHeight="1">
+      <c r="A98" s="2" t="inlineStr">
         <is>
           <t>Dogwoods</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/dogwoods/</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="99" ht="18.75" customHeight="1">
+      <c r="A99" s="2" t="inlineStr">
         <is>
           <t>Dracontiums</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/dracontiums/</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="100" ht="18.75" customHeight="1">
+      <c r="A100" s="2" t="inlineStr">
         <is>
           <t>Dudleyas</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/dudleyas/</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+    <row r="101" ht="18.75" customHeight="1">
+      <c r="A101" s="2" t="inlineStr">
         <is>
           <t>Echeverias</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/echeverias/</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+    <row r="102" ht="18.75" customHeight="1">
+      <c r="A102" s="2" t="inlineStr">
         <is>
           <t>Eggplants</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/eggplants/</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+    <row r="103" ht="18.75" customHeight="1">
+      <c r="A103" s="2" t="inlineStr">
         <is>
           <t>Elephant Ears (Alocasia)</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/alocasia/</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+    <row r="104" ht="18.75" customHeight="1">
+      <c r="A104" s="2" t="inlineStr">
         <is>
           <t>Elephant Ears (Colocasia)</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/colocasia/</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+    <row r="105" ht="18.75" customHeight="1">
+      <c r="A105" s="2" t="inlineStr">
         <is>
           <t>Elephant Ears (Xanthosoma)</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/xanthosoma/</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+    <row r="106" ht="18.75" customHeight="1">
+      <c r="A106" s="2" t="inlineStr">
         <is>
           <t>Epiphyllum</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/epiphyllum/</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+    <row r="107" ht="18.75" customHeight="1">
+      <c r="A107" s="2" t="inlineStr">
         <is>
           <t>Erodiums</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/erodiums/</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+    <row r="108" ht="18.75" customHeight="1">
+      <c r="A108" s="2" t="inlineStr">
         <is>
           <t>Erythroniums</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/erythronium/</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+    <row r="109" ht="18.75" customHeight="1">
+      <c r="A109" s="2" t="inlineStr">
         <is>
           <t>Eupatoriums</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/eupatorium/</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+    <row r="110" ht="18.75" customHeight="1">
+      <c r="A110" s="2" t="inlineStr">
         <is>
           <t>Euphorbias</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/euphorbias/</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+    <row r="111" ht="18.75" customHeight="1">
+      <c r="A111" s="2" t="inlineStr">
         <is>
           <t>False Bananas</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/false-bananas/</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+    <row r="112" ht="18.75" customHeight="1">
+      <c r="A112" s="2" t="inlineStr">
         <is>
           <t>Figs</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/figs/</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+    <row r="113" ht="18.75" customHeight="1">
+      <c r="A113" s="2" t="inlineStr">
         <is>
           <t>Foamflowers</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/foamflowers/</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+    <row r="114" ht="18.75" customHeight="1">
+      <c r="A114" s="2" t="inlineStr">
         <is>
           <t>Foamy Bells</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/foamybells/</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+    <row r="115" ht="18.75" customHeight="1">
+      <c r="A115" s="2" t="inlineStr">
         <is>
           <t>Foxgloves</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/foxgloves/</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+    <row r="116" ht="18.75" customHeight="1">
+      <c r="A116" s="2" t="inlineStr">
         <is>
           <t>Freesias</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/freesias/</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+    <row r="117" ht="18.75" customHeight="1">
+      <c r="A117" s="2" t="inlineStr">
         <is>
           <t>Fritillarias</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/fritillarias/</t>
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+    <row r="118" ht="18.75" customHeight="1">
+      <c r="A118" s="2" t="inlineStr">
         <is>
           <t>Fuchsias</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/fuchsias/</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+    <row r="119" ht="18.75" customHeight="1">
+      <c r="A119" s="2" t="inlineStr">
         <is>
           <t>Garden Nasturtiums</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/gardennasturtiums/</t>
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+    <row r="120" ht="18.75" customHeight="1">
+      <c r="A120" s="2" t="inlineStr">
         <is>
           <t>Gardenias</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/gardenias/</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+    <row r="121" ht="18.75" customHeight="1">
+      <c r="A121" s="2" t="inlineStr">
         <is>
           <t>Garlic</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/garlic/</t>
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+    <row r="122" ht="18.75" customHeight="1">
+      <c r="A122" s="2" t="inlineStr">
         <is>
           <t>Gayfeathers</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/liatris/</t>
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+    <row r="123" ht="18.75" customHeight="1">
+      <c r="A123" s="2" t="inlineStr">
         <is>
           <t>Geraniums</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/geraniums/</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+    <row r="124" ht="18.75" customHeight="1">
+      <c r="A124" s="2" t="inlineStr">
         <is>
           <t>Ginger Lilies</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/gingerlilies/</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+    <row r="125" ht="18.75" customHeight="1">
+      <c r="A125" s="2" t="inlineStr">
         <is>
           <t>Gingers</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/gingers/</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+    <row r="126" ht="18.75" customHeight="1">
+      <c r="A126" s="2" t="inlineStr">
         <is>
           <t>Gladiolus</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/gladiolus/</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+    <row r="127" ht="18.75" customHeight="1">
+      <c r="A127" s="2" t="inlineStr">
         <is>
           <t>Goldenrods</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/solidago/</t>
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="128" ht="18.75" customHeight="1">
+      <c r="A128" s="2" t="inlineStr">
         <is>
           <t>Gourds, Squashes And Pumpkins</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/cucurbits/</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+    <row r="129" ht="18.75" customHeight="1">
+      <c r="A129" s="2" t="inlineStr">
         <is>
           <t>Grape Hyacinths</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/grapehyacinths/</t>
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+    <row r="130" ht="18.75" customHeight="1">
+      <c r="A130" s="2" t="inlineStr">
         <is>
           <t>Grapes</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/vitis/</t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="131" ht="18.75" customHeight="1">
+      <c r="A131" s="2" t="inlineStr">
         <is>
           <t>Heavenly Bamboos</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/heavenly-bamboos/</t>
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="132" ht="18.75" customHeight="1">
+      <c r="A132" s="2" t="inlineStr">
         <is>
           <t>Hellebores</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/hellebores/</t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="133" ht="18.75" customHeight="1">
+      <c r="A133" s="2" t="inlineStr">
         <is>
           <t>Hibiscus</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/hibiscus/</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="134" ht="18.75" customHeight="1">
+      <c r="A134" s="2" t="inlineStr">
         <is>
           <t>Homalomenas</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/homalomenas/</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="135" ht="18.75" customHeight="1">
+      <c r="A135" s="2" t="inlineStr">
         <is>
           <t>Honeysuckles</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/loniceras/</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="136" ht="18.75" customHeight="1">
+      <c r="A136" s="2" t="inlineStr">
         <is>
           <t>Hoyas</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/hoyas/</t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="137" ht="18.75" customHeight="1">
+      <c r="A137" s="2" t="inlineStr">
         <is>
           <t>Hyacinths</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/hyacinths/</t>
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+    <row r="138" ht="18.75" customHeight="1">
+      <c r="A138" s="2" t="inlineStr">
         <is>
           <t>Hydrangeas</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B138" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/hydrangeas/</t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+    <row r="139" ht="18.75" customHeight="1">
+      <c r="A139" s="2" t="inlineStr">
         <is>
           <t>Ilex</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/ilex/</t>
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+    <row r="140" ht="18.75" customHeight="1">
+      <c r="A140" s="2" t="inlineStr">
         <is>
           <t>Joe Pye Weed</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/joe-pye-weed/</t>
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+    <row r="141" ht="18.75" customHeight="1">
+      <c r="A141" s="2" t="inlineStr">
         <is>
           <t>Jujubes</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/jujubes/</t>
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+    <row r="142" ht="18.75" customHeight="1">
+      <c r="A142" s="2" t="inlineStr">
         <is>
           <t>Kalanchoes</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/kalanchoes/</t>
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+    <row r="143" ht="18.75" customHeight="1">
+      <c r="A143" s="2" t="inlineStr">
         <is>
           <t>Lamb's Ears</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/lambsears/</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+    <row r="144" ht="18.75" customHeight="1">
+      <c r="A144" s="2" t="inlineStr">
         <is>
           <t>Lantanas</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/lantanas/</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+    <row r="145" ht="18.75" customHeight="1">
+      <c r="A145" s="2" t="inlineStr">
         <is>
           <t>Lavenders</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/lavenders/</t>
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+    <row r="146" ht="18.75" customHeight="1">
+      <c r="A146" s="2" t="inlineStr">
         <is>
           <t>Leeks</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/leeks/</t>
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+    <row r="147" ht="18.75" customHeight="1">
+      <c r="A147" s="2" t="inlineStr">
         <is>
           <t>Lettuces</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/lettuces/</t>
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+    <row r="148" ht="18.75" customHeight="1">
+      <c r="A148" s="2" t="inlineStr">
         <is>
           <t>Ligularias</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B148" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/ligularia/</t>
         </is>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+    <row r="149" ht="18.75" customHeight="1">
+      <c r="A149" s="2" t="inlineStr">
         <is>
           <t>Lilacs</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/lilacs/</t>
         </is>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+    <row r="150" ht="18.75" customHeight="1">
+      <c r="A150" s="2" t="inlineStr">
         <is>
           <t>Lilies Of The Valley</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/convallaria/</t>
         </is>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+    <row r="151" ht="18.75" customHeight="1">
+      <c r="A151" s="2" t="inlineStr">
         <is>
           <t>Lions Tail</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/lions-tail/</t>
         </is>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+    <row r="152" ht="18.75" customHeight="1">
+      <c r="A152" s="2" t="inlineStr">
         <is>
           <t>Liriopes</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/liriopes/</t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+    <row r="153" ht="18.75" customHeight="1">
+      <c r="A153" s="2" t="inlineStr">
         <is>
           <t>Living Stones</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/living-stones/</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+    <row r="154" ht="18.75" customHeight="1">
+      <c r="A154" s="2" t="inlineStr">
         <is>
           <t>Lotuses</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/lotuses/</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+    <row r="155" ht="18.75" customHeight="1">
+      <c r="A155" s="2" t="inlineStr">
         <is>
           <t>Magnolias</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/magnolias/</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+    <row r="156" ht="18.75" customHeight="1">
+      <c r="A156" s="2" t="inlineStr">
         <is>
           <t>Maianthemums</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B156" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/maianthemum/</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="157" ht="18.75" customHeight="1">
+      <c r="A157" s="2" t="inlineStr">
         <is>
           <t>Mammillarias</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/mammillarias/</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+    <row r="158" ht="18.75" customHeight="1">
+      <c r="A158" s="2" t="inlineStr">
         <is>
           <t>Mangoes</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/mangoes/</t>
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+    <row r="159" ht="18.75" customHeight="1">
+      <c r="A159" s="2" t="inlineStr">
         <is>
           <t>Marjorams</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/marjoram/</t>
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+    <row r="160" ht="18.75" customHeight="1">
+      <c r="A160" s="2" t="inlineStr">
         <is>
           <t>Melaleucas</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/melaleucas/</t>
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+    <row r="161" ht="18.75" customHeight="1">
+      <c r="A161" s="2" t="inlineStr">
         <is>
           <t>Milkweeds</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/milkweed/</t>
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+    <row r="162" ht="18.75" customHeight="1">
+      <c r="A162" s="2" t="inlineStr">
         <is>
           <t>Mints</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/mints/</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+    <row r="163" ht="18.75" customHeight="1">
+      <c r="A163" s="2" t="inlineStr">
         <is>
           <t>Mirabilis</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/mirabilis/</t>
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+    <row r="164" ht="18.75" customHeight="1">
+      <c r="A164" s="2" t="inlineStr">
         <is>
           <t>Mock Oranges</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B164" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/mockoranges/</t>
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="165" ht="18.75" customHeight="1">
+      <c r="A165" s="2" t="inlineStr">
         <is>
           <t>Morning Glories</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B165" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/morning-glories/</t>
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+    <row r="166" ht="18.75" customHeight="1">
+      <c r="A166" s="2" t="inlineStr">
         <is>
           <t>Nicotianas</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B166" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/nicotianas/</t>
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+    <row r="167" ht="18.75" customHeight="1">
+      <c r="A167" s="2" t="inlineStr">
         <is>
           <t>Ninebarks</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B167" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/ninebarks/</t>
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+    <row r="168" ht="18.75" customHeight="1">
+      <c r="A168" s="2" t="inlineStr">
         <is>
           <t>Nymphaeas</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B168" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/nymphaeas/</t>
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+    <row r="169" ht="18.75" customHeight="1">
+      <c r="A169" s="2" t="inlineStr">
         <is>
           <t>Oenotheras</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/oenothera/</t>
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+    <row r="170" ht="18.75" customHeight="1">
+      <c r="A170" s="2" t="inlineStr">
         <is>
           <t>Okra</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/okra/</t>
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+    <row r="171" ht="18.75" customHeight="1">
+      <c r="A171" s="2" t="inlineStr">
         <is>
           <t>Oleanders</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/oleanders/</t>
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+    <row r="172" ht="18.75" customHeight="1">
+      <c r="A172" s="2" t="inlineStr">
         <is>
           <t>Onions</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/onions/</t>
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+    <row r="173" ht="18.75" customHeight="1">
+      <c r="A173" s="2" t="inlineStr">
         <is>
           <t>Oreganos</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/oregano/</t>
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="174" ht="18.75" customHeight="1">
+      <c r="A174" s="2" t="inlineStr">
         <is>
           <t>Orostachys</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/orostachys/</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+    <row r="175" ht="18.75" customHeight="1">
+      <c r="A175" s="2" t="inlineStr">
         <is>
           <t>Pachypodiums</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/pachypodiums/</t>
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+    <row r="176" ht="18.75" customHeight="1">
+      <c r="A176" s="2" t="inlineStr">
         <is>
           <t>Parsleys</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/parsley/</t>
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+    <row r="177" ht="18.75" customHeight="1">
+      <c r="A177" s="2" t="inlineStr">
         <is>
           <t>Parsnips</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/parsnips/</t>
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
+    <row r="178" ht="18.75" customHeight="1">
+      <c r="A178" s="2" t="inlineStr">
         <is>
           <t>Pawpaws</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/pawpaws/</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
+    <row r="179" ht="18.75" customHeight="1">
+      <c r="A179" s="2" t="inlineStr">
         <is>
           <t>Peace Lilies</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/peacelilies/</t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
+    <row r="180" ht="18.75" customHeight="1">
+      <c r="A180" s="2" t="inlineStr">
         <is>
           <t>Peaches</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/peaches/</t>
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
+    <row r="181" ht="18.75" customHeight="1">
+      <c r="A181" s="2" t="inlineStr">
         <is>
           <t>Pears</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/pears/</t>
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+    <row r="182" ht="18.75" customHeight="1">
+      <c r="A182" s="2" t="inlineStr">
         <is>
           <t>Peas</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/peas/</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+    <row r="183" ht="18.75" customHeight="1">
+      <c r="A183" s="2" t="inlineStr">
         <is>
           <t>Pecans</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/pecans/</t>
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+    <row r="184" ht="18.75" customHeight="1">
+      <c r="A184" s="2" t="inlineStr">
         <is>
           <t>Pelargoniums</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/pelargonium/</t>
         </is>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
+    <row r="185" ht="18.75" customHeight="1">
+      <c r="A185" s="2" t="inlineStr">
         <is>
           <t>Penstemons</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/penstemon/</t>
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
+    <row r="186" ht="18.75" customHeight="1">
+      <c r="A186" s="2" t="inlineStr">
         <is>
           <t>Peppers</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/peppers/</t>
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
+    <row r="187" ht="18.75" customHeight="1">
+      <c r="A187" s="2" t="inlineStr">
         <is>
           <t>Persimmons</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/persimmons/</t>
         </is>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
+    <row r="188" ht="18.75" customHeight="1">
+      <c r="A188" s="2" t="inlineStr">
         <is>
           <t>Peruvian Lilies</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/peruvian-lilies/</t>
         </is>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+    <row r="189" ht="18.75" customHeight="1">
+      <c r="A189" s="2" t="inlineStr">
         <is>
           <t>Petunias</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/petunias/</t>
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
+    <row r="190" ht="18.75" customHeight="1">
+      <c r="A190" s="2" t="inlineStr">
         <is>
           <t>Philodendrons</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/philodendron/</t>
         </is>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
+    <row r="191" ht="18.75" customHeight="1">
+      <c r="A191" s="2" t="inlineStr">
         <is>
           <t>Phloxes</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B191" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/phlox/</t>
         </is>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
+    <row r="192" ht="18.75" customHeight="1">
+      <c r="A192" s="2" t="inlineStr">
         <is>
           <t>Pinellias</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B192" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/pinellia/</t>
         </is>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
+    <row r="193" ht="18.75" customHeight="1">
+      <c r="A193" s="2" t="inlineStr">
         <is>
           <t>Pitcher Plants</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/pitcher-plants/</t>
         </is>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
+    <row r="194" ht="18.75" customHeight="1">
+      <c r="A194" s="2" t="inlineStr">
         <is>
           <t>Platycodons</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/platycodon/</t>
         </is>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
+    <row r="195" ht="18.75" customHeight="1">
+      <c r="A195" s="2" t="inlineStr">
         <is>
           <t>Plumerias</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/plumerias/</t>
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
+    <row r="196" ht="18.75" customHeight="1">
+      <c r="A196" s="2" t="inlineStr">
         <is>
           <t>Plums</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/plums/</t>
         </is>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
+    <row r="197" ht="18.75" customHeight="1">
+      <c r="A197" s="2" t="inlineStr">
         <is>
           <t>Pomegranates</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/pomegranates/</t>
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
+    <row r="198" ht="18.75" customHeight="1">
+      <c r="A198" s="2" t="inlineStr">
         <is>
           <t>Poppies</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/poppies/</t>
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
+    <row r="199" ht="18.75" customHeight="1">
+      <c r="A199" s="2" t="inlineStr">
         <is>
           <t>Potatoes</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/potatoes/</t>
         </is>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
+    <row r="200" ht="18.75" customHeight="1">
+      <c r="A200" s="2" t="inlineStr">
         <is>
           <t>Prickly Pears</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/pricklypears/</t>
         </is>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
+    <row r="201" ht="18.75" customHeight="1">
+      <c r="A201" s="2" t="inlineStr">
         <is>
           <t>Primroses</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B201" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/primroses/</t>
         </is>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
+    <row r="202" ht="18.75" customHeight="1">
+      <c r="A202" s="2" t="inlineStr">
         <is>
           <t>Radishes</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/radishes/</t>
         </is>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
+    <row r="203" ht="18.75" customHeight="1">
+      <c r="A203" s="2" t="inlineStr">
         <is>
           <t>Rain Lilies</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B203" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/rain-lilies/</t>
         </is>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+    <row r="204" ht="18.75" customHeight="1">
+      <c r="A204" s="2" t="inlineStr">
         <is>
           <t>Rhododendrons</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/rhododendrons/</t>
         </is>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+    <row r="205" ht="18.75" customHeight="1">
+      <c r="A205" s="2" t="inlineStr">
         <is>
           <t>Rhubarbs</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B205" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/rhubarbs/</t>
         </is>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+    <row r="206" ht="18.75" customHeight="1">
+      <c r="A206" s="2" t="inlineStr">
         <is>
           <t>Rockroses</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/rockroses/</t>
         </is>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
+    <row r="207" ht="18.75" customHeight="1">
+      <c r="A207" s="2" t="inlineStr">
         <is>
           <t>Roses Of Sharon</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B207" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/roseofsharon/</t>
         </is>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+    <row r="208" ht="18.75" customHeight="1">
+      <c r="A208" s="2" t="inlineStr">
         <is>
           <t>Rosularias</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B208" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/rosularias/</t>
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+    <row r="209" ht="18.75" customHeight="1">
+      <c r="A209" s="2" t="inlineStr">
         <is>
           <t>Rubus</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B209" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/rubus/</t>
         </is>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+    <row r="210" ht="18.75" customHeight="1">
+      <c r="A210" s="2" t="inlineStr">
         <is>
           <t>Salvias</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/salvias/</t>
         </is>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
+    <row r="211" ht="18.75" customHeight="1">
+      <c r="A211" s="2" t="inlineStr">
         <is>
           <t>Sauromatums</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/sauromatum/</t>
         </is>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
+    <row r="212" ht="18.75" customHeight="1">
+      <c r="A212" s="2" t="inlineStr">
         <is>
           <t>Schlumbergeras</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/schlumbergeras/</t>
         </is>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
+    <row r="213" ht="18.75" customHeight="1">
+      <c r="A213" s="2" t="inlineStr">
         <is>
           <t>Sedges</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/sedges/</t>
         </is>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
+    <row r="214" ht="18.75" customHeight="1">
+      <c r="A214" s="2" t="inlineStr">
         <is>
           <t>Sedums</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/sedums/</t>
         </is>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
+    <row r="215" ht="18.75" customHeight="1">
+      <c r="A215" s="2" t="inlineStr">
         <is>
           <t>Shasta Daisies</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/shastadaisies/</t>
         </is>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
+    <row r="216" ht="18.75" customHeight="1">
+      <c r="A216" s="2" t="inlineStr">
         <is>
           <t>Shell Flowers (Pavonia)</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/shell-flowers/</t>
         </is>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
+    <row r="217" ht="18.75" customHeight="1">
+      <c r="A217" s="2" t="inlineStr">
         <is>
           <t>Silphiums</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/silphium/</t>
         </is>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
+    <row r="218" ht="18.75" customHeight="1">
+      <c r="A218" s="2" t="inlineStr">
         <is>
           <t>Sisyrinchiums</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/sisyrinchium/</t>
         </is>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
+    <row r="219" ht="18.75" customHeight="1">
+      <c r="A219" s="2" t="inlineStr">
         <is>
           <t>Smoketrees</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/smoketrees/</t>
         </is>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
+    <row r="220" ht="18.75" customHeight="1">
+      <c r="A220" s="2" t="inlineStr">
         <is>
           <t>Snake Plants</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/snake-plants/</t>
         </is>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
+    <row r="221" ht="18.75" customHeight="1">
+      <c r="A221" s="2" t="inlineStr">
         <is>
           <t>Snowdrops</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/snowdrops/</t>
         </is>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
+    <row r="222" ht="18.75" customHeight="1">
+      <c r="A222" s="2" t="inlineStr">
         <is>
           <t>Southern Peas</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/southernpeas/</t>
         </is>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
+    <row r="223" ht="18.75" customHeight="1">
+      <c r="A223" s="2" t="inlineStr">
         <is>
           <t>Spider Lilies</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/spiderlilies/</t>
         </is>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
+    <row r="224" ht="18.75" customHeight="1">
+      <c r="A224" s="2" t="inlineStr">
         <is>
           <t>Spinaches</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/spinach/</t>
         </is>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
+    <row r="225" ht="18.75" customHeight="1">
+      <c r="A225" s="2" t="inlineStr">
         <is>
           <t>Spiraeas</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/spiraeas/</t>
         </is>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
+    <row r="226" ht="18.75" customHeight="1">
+      <c r="A226" s="2" t="inlineStr">
         <is>
           <t>Spruces</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/spruces/</t>
         </is>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
+    <row r="227" ht="18.75" customHeight="1">
+      <c r="A227" s="2" t="inlineStr">
         <is>
           <t>Strawberries</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/strawberries/</t>
         </is>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
+    <row r="228" ht="18.75" customHeight="1">
+      <c r="A228" s="2" t="inlineStr">
         <is>
           <t>Sunflowers</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/sunflowers/</t>
         </is>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
+    <row r="229" ht="18.75" customHeight="1">
+      <c r="A229" s="2" t="inlineStr">
         <is>
           <t>Sunroots</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/sunroots/</t>
         </is>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
+    <row r="230" ht="18.75" customHeight="1">
+      <c r="A230" s="2" t="inlineStr">
         <is>
           <t>Surprise Lilies (Lycoris)</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/surprise-lilies/</t>
         </is>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
+    <row r="231" ht="18.75" customHeight="1">
+      <c r="A231" s="2" t="inlineStr">
         <is>
           <t>Sweet Cherries</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/cherries/</t>
         </is>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
+    <row r="232" ht="18.75" customHeight="1">
+      <c r="A232" s="2" t="inlineStr">
         <is>
           <t>Sweet Potatoes</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/sweetpotatoes/</t>
         </is>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
+    <row r="233" ht="18.75" customHeight="1">
+      <c r="A233" s="2" t="inlineStr">
         <is>
           <t>Swiss Chards</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/swisschard/</t>
         </is>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
+    <row r="234" ht="18.75" customHeight="1">
+      <c r="A234" s="2" t="inlineStr">
         <is>
           <t>Syngoniums</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/syngoniums/</t>
         </is>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
+    <row r="235" ht="18.75" customHeight="1">
+      <c r="A235" s="2" t="inlineStr">
         <is>
           <t>Tarragons</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/tarragon/</t>
         </is>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
+    <row r="236" ht="18.75" customHeight="1">
+      <c r="A236" s="2" t="inlineStr">
         <is>
           <t>Thymes</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/thyme/</t>
         </is>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
+    <row r="237" ht="18.75" customHeight="1">
+      <c r="A237" s="2" t="inlineStr">
         <is>
           <t>Tickseeds</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/tickseeds/</t>
         </is>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
+    <row r="238" ht="18.75" customHeight="1">
+      <c r="A238" s="2" t="inlineStr">
         <is>
           <t>Toad Lilies</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/toad-lilies/</t>
         </is>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
+    <row r="239" ht="18.75" customHeight="1">
+      <c r="A239" s="2" t="inlineStr">
         <is>
           <t>Torch Lilies</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/tritomas/</t>
         </is>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
+    <row r="240" ht="18.75" customHeight="1">
+      <c r="A240" s="2" t="inlineStr">
         <is>
           <t>Tradescantias</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/tradescantia/</t>
         </is>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
+    <row r="241" ht="18.75" customHeight="1">
+      <c r="A241" s="2" t="inlineStr">
         <is>
           <t>Trilliums</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B241" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/american-wood-lilies/</t>
         </is>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
+    <row r="242" ht="18.75" customHeight="1">
+      <c r="A242" s="2" t="inlineStr">
         <is>
           <t>Tropical Hibiscuses</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/tropicalhibiscuses/</t>
         </is>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
+    <row r="243" ht="18.75" customHeight="1">
+      <c r="A243" s="2" t="inlineStr">
         <is>
           <t>Tulips</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B243" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/tulips/</t>
         </is>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
+    <row r="244" ht="18.75" customHeight="1">
+      <c r="A244" s="2" t="inlineStr">
         <is>
           <t>Turnips</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B244" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/turnips/</t>
         </is>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
+    <row r="245" ht="18.75" customHeight="1">
+      <c r="A245" s="2" t="inlineStr">
         <is>
           <t>Typhoniums</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B245" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/typhonium/</t>
         </is>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
+    <row r="246" ht="18.75" customHeight="1">
+      <c r="A246" s="2" t="inlineStr">
         <is>
           <t>Uvularias</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/uvularia/</t>
         </is>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
+    <row r="247" ht="18.75" customHeight="1">
+      <c r="A247" s="2" t="inlineStr">
         <is>
           <t>Veronicas</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/veronicas/</t>
         </is>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
+    <row r="248" ht="18.75" customHeight="1">
+      <c r="A248" s="2" t="inlineStr">
         <is>
           <t>Viburnums</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/viburnums/</t>
         </is>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
+    <row r="249" ht="18.75" customHeight="1">
+      <c r="A249" s="2" t="inlineStr">
         <is>
           <t>Violas</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/violas/</t>
         </is>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
+    <row r="250" ht="18.75" customHeight="1">
+      <c r="A250" s="2" t="inlineStr">
         <is>
           <t>Watermelons</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/watermelons/</t>
         </is>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
+    <row r="251" ht="18.75" customHeight="1">
+      <c r="A251" s="2" t="inlineStr">
         <is>
           <t>Wild Gingers</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/asarum/</t>
         </is>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
+    <row r="252" ht="18.75" customHeight="1">
+      <c r="A252" s="2" t="inlineStr">
         <is>
           <t>Wisterias</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/wisterias/</t>
         </is>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
+    <row r="253" ht="18.75" customHeight="1">
+      <c r="A253" s="2" t="inlineStr">
         <is>
           <t>Witch Hazels</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/witchhazels/</t>
         </is>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
+    <row r="254" ht="18.75" customHeight="1">
+      <c r="A254" s="2" t="inlineStr">
         <is>
           <t>Wood Sorrels</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/wood-sorrels/</t>
         </is>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
+    <row r="255" ht="18.75" customHeight="1">
+      <c r="A255" s="2" t="inlineStr">
         <is>
           <t>Yarrows</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>http://garden.org/plants/group/yarrows/</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>